--- a/PRODUCT AND REVENUE analysis.xlsx
+++ b/PRODUCT AND REVENUE analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BAD5CD-C17E-46B1-91B9-C7189E830434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5877AC32-6F08-44D2-A498-D4C9D0EC682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{E3995276-F1CD-4EF0-B996-FF4C09FD4CC7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{E3995276-F1CD-4EF0-B996-FF4C09FD4CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="productline with higest revenue" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="50" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>A</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Sports and travel</t>
   </si>
   <si>
-    <t xml:space="preserve">insights ; food and beverages </t>
-  </si>
-  <si>
     <t>Sum of Quantity</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
   </si>
   <si>
     <t>Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insights </t>
   </si>
   <si>
     <r>
@@ -127,6 +121,21 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>insights ; This shows the total sales amount per product category</t>
+  </si>
+  <si>
+    <t>This shows the average amount spent per transaction for each</t>
+  </si>
+  <si>
+    <t>This helps identify which product line sells the most units</t>
+  </si>
+  <si>
+    <t>This helps compare product sales across branches</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This helps identify gender-based purchasing trends.</t>
   </si>
 </sst>
 </file>
@@ -190,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -204,11 +213,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2757,6 +2765,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1613174031"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
@@ -2804,6 +2813,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1613169231"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4363,7 +4373,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -14450,8 +14459,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>38486</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="17" name="Product line">
@@ -14474,7 +14483,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14528,8 +14537,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>153939</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="18" name="Branch">
@@ -14552,7 +14561,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -36743,7 +36752,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3A7166F-64B6-4EA7-A2DC-7FDD5AFA58E3}" name="PivotTable11" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="42">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3A7166F-64B6-4EA7-A2DC-7FDD5AFA58E3}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="42">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -36898,7 +36907,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C1135EAF-86A3-4292-B4E1-DCA24B1ABA74}" name="PivotTable12" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C1135EAF-86A3-4292-B4E1-DCA24B1ABA74}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -37044,7 +37053,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A34DC584-AEB9-4C8D-B9C7-114B79AAB941}" name="PivotTable13" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A34DC584-AEB9-4C8D-B9C7-114B79AAB941}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -37183,7 +37192,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{298F0EE6-05C7-4160-8E4D-A69C153E155B}" name="PivotTable14" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{298F0EE6-05C7-4160-8E4D-A69C153E155B}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
   <location ref="A3:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -37492,7 +37501,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0920A9FE-B5B7-477F-84E4-39234907D096}" name="PivotTable15" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="29">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0920A9FE-B5B7-477F-84E4-39234907D096}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="29">
   <location ref="A3:D11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField dataField="1" showAll="0"/>
@@ -38188,7 +38197,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -38212,10 +38221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4831DE0E-0D54-4888-96D2-EDAABFFE628E}">
-  <dimension ref="A3:D13"/>
+  <dimension ref="A3:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A14" sqref="A14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38300,7 +38309,32 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13" s="5"/>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:C17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -38311,7 +38345,7 @@
   <dimension ref="A3:D16"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A14" sqref="A14:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38325,7 +38359,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -38388,15 +38422,29 @@
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D14" s="5"/>
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:D16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -38404,10 +38452,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6993FF26-3E97-4A48-BF42-2C9213DCF6AD}">
-  <dimension ref="A3:E11"/>
+  <dimension ref="A3:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A14" sqref="A14:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38423,15 +38471,15 @@
     <col min="13" max="13" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -38448,7 +38496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -38465,7 +38513,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -38482,7 +38530,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -38499,7 +38547,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -38516,7 +38564,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -38533,7 +38581,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -38550,7 +38598,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -38567,7 +38615,36 @@
         <v>5510</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:F16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -38577,8 +38654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120B34BD-8BDD-4B76-8BDE-C90D26CB3CA6}">
   <dimension ref="A3:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38594,7 +38671,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -38602,10 +38679,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -38615,13 +38692,13 @@
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>84</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>86</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
         <v>170</v>
       </c>
     </row>
@@ -38629,13 +38706,13 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>96</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>82</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6">
         <v>178</v>
       </c>
     </row>
@@ -38643,13 +38720,13 @@
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>90</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>84</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
         <v>174</v>
       </c>
     </row>
@@ -38657,13 +38734,13 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>64</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>88</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8">
         <v>152</v>
       </c>
     </row>
@@ -38671,13 +38748,13 @@
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>79</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>81</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>160</v>
       </c>
     </row>
@@ -38685,13 +38762,13 @@
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>88</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>78</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10">
         <v>166</v>
       </c>
     </row>
@@ -38699,13 +38776,13 @@
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>501</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>499</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11">
         <v>1000</v>
       </c>
     </row>
@@ -38723,7 +38800,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -38748,100 +38825,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EF2C12-9DE9-41DF-811C-DA2F1DEFDD0B}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:27" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>19</v>
+      <c r="A1" s="7" t="s">
+        <v>17</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
